--- a/AIS_DB,기능목록_v0.1.xlsx
+++ b/AIS_DB,기능목록_v0.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conte\Desktop\프로\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conte\Desktop\AIS\AIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="241">
   <si>
     <t>발생년</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -512,10 +512,6 @@
   </si>
   <si>
     <t>Foreign Key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Primary Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -890,6 +886,78 @@
   </si>
   <si>
     <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_BOARD
+(게시판)</t>
+  </si>
+  <si>
+    <t>순번</t>
+  </si>
+  <si>
+    <t>제목</t>
+  </si>
+  <si>
+    <t>등록일</t>
+  </si>
+  <si>
+    <t>조회수</t>
+  </si>
+  <si>
+    <t>TB_REPLY
+(댓글)</t>
+  </si>
+  <si>
+    <t>순번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Primary Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bd_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bd_cont</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bd_passwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bd_regdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bd_cnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rp_regdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rp_content</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -978,7 +1046,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1324,13 +1392,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1403,6 +1495,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1425,36 +1565,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1737,16 +1847,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J117"/>
+  <dimension ref="A1:J128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="21.09765625" customWidth="1"/>
+    <col min="2" max="2" width="4.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="21.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.19921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.296875" bestFit="1" customWidth="1"/>
@@ -1756,37 +1866,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="38"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="41"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="20" t="s">
         <v>115</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>118</v>
@@ -1801,7 +1911,7 @@
         <v>126</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="H3" s="20" t="s">
         <v>129</v>
@@ -1810,12 +1920,12 @@
         <v>128</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="33" t="s">
-        <v>181</v>
+      <c r="A4" s="31" t="s">
+        <v>180</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -1824,25 +1934,25 @@
         <v>127</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="23"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -1850,7 +1960,7 @@
         <v>119</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>90</v>
@@ -1862,7 +1972,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="23"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -1870,10 +1980,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1882,7 +1992,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="23"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -1902,7 +2012,7 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="23"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -1910,10 +2020,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1922,7 +2032,7 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="23"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -1930,10 +2040,10 @@
         <v>120</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1942,7 +2052,7 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="23"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -1950,10 +2060,10 @@
         <v>121</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1962,7 +2072,7 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="23"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -1970,10 +2080,10 @@
         <v>122</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1982,7 +2092,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="23"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -1990,10 +2100,10 @@
         <v>123</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -2002,7 +2112,7 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="23"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="1">
         <v>10</v>
       </c>
@@ -2010,10 +2120,10 @@
         <v>124</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2022,7 +2132,7 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="23"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="1">
         <v>11</v>
       </c>
@@ -2030,10 +2140,10 @@
         <v>125</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -2042,7 +2152,7 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="23"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="1">
         <v>12</v>
       </c>
@@ -2050,10 +2160,10 @@
         <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2062,7 +2172,7 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="23"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="1">
         <v>13</v>
       </c>
@@ -2070,10 +2180,10 @@
         <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -2082,7 +2192,7 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="23"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="1">
         <v>14</v>
       </c>
@@ -2090,10 +2200,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2102,7 +2212,7 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="23"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="1">
         <v>15</v>
       </c>
@@ -2110,10 +2220,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -2122,7 +2232,7 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" s="23"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="1">
         <v>16</v>
       </c>
@@ -2130,10 +2240,10 @@
         <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2142,7 +2252,7 @@
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A20" s="23"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="1">
         <v>17</v>
       </c>
@@ -2150,10 +2260,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -2162,7 +2272,7 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A21" s="23"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="1">
         <v>18</v>
       </c>
@@ -2170,10 +2280,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2182,7 +2292,7 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A22" s="23"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="1">
         <v>19</v>
       </c>
@@ -2190,10 +2300,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -2202,7 +2312,7 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A23" s="23"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="1">
         <v>20</v>
       </c>
@@ -2210,10 +2320,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2222,7 +2332,7 @@
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="23"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="1">
         <v>21</v>
       </c>
@@ -2230,10 +2340,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2242,7 +2352,7 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="23"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="1">
         <v>22</v>
       </c>
@@ -2250,10 +2360,10 @@
         <v>20</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -2262,7 +2372,7 @@
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" s="23"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="1">
         <v>23</v>
       </c>
@@ -2270,10 +2380,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -2282,7 +2392,7 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" s="23"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="1">
         <v>24</v>
       </c>
@@ -2290,10 +2400,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -2302,7 +2412,7 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="23"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="1">
         <v>25</v>
       </c>
@@ -2310,10 +2420,10 @@
         <v>23</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -2322,7 +2432,7 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29" s="23"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="1">
         <v>26</v>
       </c>
@@ -2330,10 +2440,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -2342,7 +2452,7 @@
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="23"/>
+      <c r="A30" s="32"/>
       <c r="B30" s="1">
         <v>27</v>
       </c>
@@ -2350,10 +2460,10 @@
         <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -2362,7 +2472,7 @@
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="23"/>
+      <c r="A31" s="32"/>
       <c r="B31" s="1">
         <v>28</v>
       </c>
@@ -2370,10 +2480,10 @@
         <v>26</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -2382,58 +2492,58 @@
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A33" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="B33" s="34">
+      <c r="A33" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="B33" s="25">
         <v>1</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" s="23"/>
-      <c r="B34" s="34">
+      <c r="A34" s="32"/>
+      <c r="B34" s="25">
         <v>2</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -2442,18 +2552,18 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A35" s="23"/>
-      <c r="B35" s="34">
+      <c r="A35" s="32"/>
+      <c r="B35" s="25">
         <v>3</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -2462,18 +2572,18 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36" s="23"/>
-      <c r="B36" s="34">
+      <c r="A36" s="32"/>
+      <c r="B36" s="25">
         <v>4</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -2482,18 +2592,18 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A37" s="23"/>
-      <c r="B37" s="34">
+      <c r="A37" s="32"/>
+      <c r="B37" s="25">
         <v>5</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>61</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -2502,18 +2612,18 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="23"/>
-      <c r="B38" s="34">
+      <c r="A38" s="32"/>
+      <c r="B38" s="25">
         <v>6</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -2522,18 +2632,18 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" s="23"/>
-      <c r="B39" s="34">
+      <c r="A39" s="32"/>
+      <c r="B39" s="25">
         <v>7</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -2542,18 +2652,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A40" s="23"/>
-      <c r="B40" s="34">
+      <c r="A40" s="32"/>
+      <c r="B40" s="25">
         <v>8</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -2562,18 +2672,18 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A41" s="23"/>
-      <c r="B41" s="34">
+      <c r="A41" s="32"/>
+      <c r="B41" s="25">
         <v>9</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -2582,12 +2692,12 @@
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A42" s="23"/>
-      <c r="B42" s="34">
+      <c r="A42" s="32"/>
+      <c r="B42" s="25">
         <v>10</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>45</v>
@@ -2602,12 +2712,12 @@
       <c r="J42" s="2"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A43" s="23"/>
-      <c r="B43" s="34">
+      <c r="A43" s="32"/>
+      <c r="B43" s="25">
         <v>11</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>48</v>
@@ -2622,18 +2732,18 @@
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A44" s="23"/>
-      <c r="B44" s="34">
+      <c r="A44" s="32"/>
+      <c r="B44" s="25">
         <v>12</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -2642,15 +2752,15 @@
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A45" s="23"/>
-      <c r="B45" s="34">
+      <c r="A45" s="32"/>
+      <c r="B45" s="25">
         <v>13</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>96</v>
@@ -2662,15 +2772,15 @@
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A46" s="23"/>
-      <c r="B46" s="34">
+      <c r="A46" s="32"/>
+      <c r="B46" s="25">
         <v>14</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>106</v>
@@ -2682,18 +2792,18 @@
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A47" s="23"/>
-      <c r="B47" s="34">
+      <c r="A47" s="32"/>
+      <c r="B47" s="25">
         <v>15</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -2702,18 +2812,18 @@
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A48" s="23"/>
-      <c r="B48" s="34">
+      <c r="A48" s="32"/>
+      <c r="B48" s="25">
         <v>16</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -2722,58 +2832,58 @@
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A49" s="32"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="32"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A50" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="B50" s="34">
+      <c r="A50" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="B50" s="25">
         <v>1</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G50" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J50" s="2"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A51" s="23"/>
-      <c r="B51" s="34">
+      <c r="A51" s="32"/>
+      <c r="B51" s="25">
         <v>2</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -2782,18 +2892,18 @@
       <c r="J51" s="2"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A52" s="23"/>
-      <c r="B52" s="34">
+      <c r="A52" s="32"/>
+      <c r="B52" s="25">
         <v>3</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -2802,18 +2912,18 @@
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A53" s="23"/>
-      <c r="B53" s="34">
+      <c r="A53" s="32"/>
+      <c r="B53" s="25">
         <v>4</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -2822,18 +2932,18 @@
       <c r="J53" s="2"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A54" s="23"/>
-      <c r="B54" s="34">
+      <c r="A54" s="32"/>
+      <c r="B54" s="25">
         <v>5</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>61</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -2842,18 +2952,18 @@
       <c r="J54" s="2"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A55" s="23"/>
-      <c r="B55" s="34">
+      <c r="A55" s="32"/>
+      <c r="B55" s="25">
         <v>6</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -2862,18 +2972,18 @@
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A56" s="23"/>
-      <c r="B56" s="34">
+      <c r="A56" s="32"/>
+      <c r="B56" s="25">
         <v>7</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -2882,18 +2992,18 @@
       <c r="J56" s="2"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A57" s="23"/>
-      <c r="B57" s="34">
+      <c r="A57" s="32"/>
+      <c r="B57" s="25">
         <v>8</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -2902,18 +3012,18 @@
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A58" s="23"/>
-      <c r="B58" s="34">
+      <c r="A58" s="32"/>
+      <c r="B58" s="25">
         <v>9</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -2922,12 +3032,12 @@
       <c r="J58" s="2"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A59" s="23"/>
-      <c r="B59" s="34">
+      <c r="A59" s="32"/>
+      <c r="B59" s="25">
         <v>10</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>45</v>
@@ -2942,12 +3052,12 @@
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A60" s="23"/>
-      <c r="B60" s="34">
+      <c r="A60" s="32"/>
+      <c r="B60" s="25">
         <v>11</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>48</v>
@@ -2962,18 +3072,18 @@
       <c r="J60" s="2"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A61" s="23"/>
-      <c r="B61" s="34">
+      <c r="A61" s="32"/>
+      <c r="B61" s="25">
         <v>12</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -2982,15 +3092,15 @@
       <c r="J61" s="2"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A62" s="23"/>
-      <c r="B62" s="34">
+      <c r="A62" s="32"/>
+      <c r="B62" s="25">
         <v>13</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>96</v>
@@ -3002,15 +3112,15 @@
       <c r="J62" s="2"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A63" s="23"/>
-      <c r="B63" s="34">
+      <c r="A63" s="32"/>
+      <c r="B63" s="25">
         <v>14</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>106</v>
@@ -3022,18 +3132,18 @@
       <c r="J63" s="2"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A64" s="23"/>
-      <c r="B64" s="34">
+      <c r="A64" s="32"/>
+      <c r="B64" s="25">
         <v>15</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -3042,18 +3152,18 @@
       <c r="J64" s="2"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A65" s="23"/>
-      <c r="B65" s="34">
+      <c r="A65" s="32"/>
+      <c r="B65" s="25">
         <v>16</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -3062,58 +3172,58 @@
       <c r="J65" s="2"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A66" s="32"/>
-      <c r="B66" s="32"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="32"/>
-      <c r="I66" s="32"/>
-      <c r="J66" s="32"/>
+      <c r="A66" s="24"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A67" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="B67" s="34">
+      <c r="A67" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="B67" s="25">
         <v>1</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G67" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J67" s="2"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A68" s="23"/>
-      <c r="B68" s="34">
+      <c r="A68" s="32"/>
+      <c r="B68" s="25">
         <v>2</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -3122,18 +3232,18 @@
       <c r="J68" s="2"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A69" s="23"/>
-      <c r="B69" s="34">
+      <c r="A69" s="32"/>
+      <c r="B69" s="25">
         <v>3</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -3142,18 +3252,18 @@
       <c r="J69" s="2"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A70" s="23"/>
-      <c r="B70" s="34">
+      <c r="A70" s="32"/>
+      <c r="B70" s="25">
         <v>4</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -3162,18 +3272,18 @@
       <c r="J70" s="2"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A71" s="23"/>
-      <c r="B71" s="34">
+      <c r="A71" s="32"/>
+      <c r="B71" s="25">
         <v>5</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>61</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -3182,18 +3292,18 @@
       <c r="J71" s="2"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A72" s="23"/>
-      <c r="B72" s="34">
+      <c r="A72" s="32"/>
+      <c r="B72" s="25">
         <v>6</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -3202,18 +3312,18 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A73" s="23"/>
-      <c r="B73" s="34">
+      <c r="A73" s="32"/>
+      <c r="B73" s="25">
         <v>7</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -3222,18 +3332,18 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A74" s="23"/>
-      <c r="B74" s="34">
+      <c r="A74" s="32"/>
+      <c r="B74" s="25">
         <v>8</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -3242,18 +3352,18 @@
       <c r="J74" s="2"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A75" s="23"/>
-      <c r="B75" s="34">
+      <c r="A75" s="32"/>
+      <c r="B75" s="25">
         <v>9</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -3262,12 +3372,12 @@
       <c r="J75" s="2"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A76" s="23"/>
-      <c r="B76" s="34">
+      <c r="A76" s="32"/>
+      <c r="B76" s="25">
         <v>10</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>45</v>
@@ -3282,12 +3392,12 @@
       <c r="J76" s="2"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A77" s="23"/>
-      <c r="B77" s="34">
+      <c r="A77" s="32"/>
+      <c r="B77" s="25">
         <v>11</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>48</v>
@@ -3302,18 +3412,18 @@
       <c r="J77" s="2"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A78" s="23"/>
-      <c r="B78" s="34">
+      <c r="A78" s="32"/>
+      <c r="B78" s="25">
         <v>12</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -3322,15 +3432,15 @@
       <c r="J78" s="2"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A79" s="23"/>
-      <c r="B79" s="34">
+      <c r="A79" s="32"/>
+      <c r="B79" s="25">
         <v>13</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>96</v>
@@ -3342,15 +3452,15 @@
       <c r="J79" s="2"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A80" s="23"/>
-      <c r="B80" s="34">
+      <c r="A80" s="32"/>
+      <c r="B80" s="25">
         <v>14</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>106</v>
@@ -3362,18 +3472,18 @@
       <c r="J80" s="2"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A81" s="23"/>
-      <c r="B81" s="34">
+      <c r="A81" s="32"/>
+      <c r="B81" s="25">
         <v>15</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -3382,18 +3492,18 @@
       <c r="J81" s="2"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A82" s="23"/>
-      <c r="B82" s="34">
+      <c r="A82" s="32"/>
+      <c r="B82" s="25">
         <v>16</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -3402,58 +3512,58 @@
       <c r="J82" s="2"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A83" s="32"/>
-      <c r="B83" s="32"/>
-      <c r="C83" s="32"/>
-      <c r="D83" s="32"/>
-      <c r="E83" s="32"/>
-      <c r="F83" s="32"/>
-      <c r="G83" s="32"/>
-      <c r="H83" s="32"/>
-      <c r="I83" s="32"/>
-      <c r="J83" s="32"/>
+      <c r="A83" s="24"/>
+      <c r="B83" s="24"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A84" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="B84" s="34">
+      <c r="A84" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="B84" s="25">
         <v>1</v>
       </c>
       <c r="C84" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G84" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H84" s="2"/>
       <c r="I84" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J84" s="2"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A85" s="23"/>
-      <c r="B85" s="34">
+      <c r="A85" s="32"/>
+      <c r="B85" s="25">
         <v>2</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
@@ -3462,18 +3572,18 @@
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A86" s="23"/>
-      <c r="B86" s="34">
+      <c r="A86" s="32"/>
+      <c r="B86" s="25">
         <v>3</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -3482,18 +3592,18 @@
       <c r="J86" s="2"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A87" s="23"/>
-      <c r="B87" s="34">
+      <c r="A87" s="32"/>
+      <c r="B87" s="25">
         <v>4</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -3502,18 +3612,18 @@
       <c r="J87" s="2"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A88" s="23"/>
-      <c r="B88" s="34">
+      <c r="A88" s="32"/>
+      <c r="B88" s="25">
         <v>5</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>61</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -3522,18 +3632,18 @@
       <c r="J88" s="2"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A89" s="23"/>
-      <c r="B89" s="34">
+      <c r="A89" s="32"/>
+      <c r="B89" s="25">
         <v>6</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D89" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -3542,18 +3652,18 @@
       <c r="J89" s="2"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A90" s="23"/>
-      <c r="B90" s="34">
+      <c r="A90" s="32"/>
+      <c r="B90" s="25">
         <v>7</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D90" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
@@ -3562,18 +3672,18 @@
       <c r="J90" s="2"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A91" s="23"/>
-      <c r="B91" s="34">
+      <c r="A91" s="32"/>
+      <c r="B91" s="25">
         <v>8</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D91" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
@@ -3582,18 +3692,18 @@
       <c r="J91" s="2"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A92" s="23"/>
-      <c r="B92" s="34">
+      <c r="A92" s="32"/>
+      <c r="B92" s="25">
         <v>9</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
@@ -3602,12 +3712,12 @@
       <c r="J92" s="2"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A93" s="23"/>
-      <c r="B93" s="34">
+      <c r="A93" s="32"/>
+      <c r="B93" s="25">
         <v>10</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>45</v>
@@ -3622,12 +3732,12 @@
       <c r="J93" s="2"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A94" s="23"/>
-      <c r="B94" s="34">
+      <c r="A94" s="32"/>
+      <c r="B94" s="25">
         <v>11</v>
       </c>
       <c r="C94" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>48</v>
@@ -3642,18 +3752,18 @@
       <c r="J94" s="2"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A95" s="23"/>
-      <c r="B95" s="34">
+      <c r="A95" s="32"/>
+      <c r="B95" s="25">
         <v>12</v>
       </c>
       <c r="C95" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
@@ -3662,15 +3772,15 @@
       <c r="J95" s="2"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A96" s="23"/>
-      <c r="B96" s="34">
+      <c r="A96" s="32"/>
+      <c r="B96" s="25">
         <v>13</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>96</v>
@@ -3682,15 +3792,15 @@
       <c r="J96" s="2"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A97" s="23"/>
-      <c r="B97" s="34">
+      <c r="A97" s="32"/>
+      <c r="B97" s="25">
         <v>14</v>
       </c>
       <c r="C97" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>106</v>
@@ -3702,18 +3812,18 @@
       <c r="J97" s="2"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A98" s="23"/>
-      <c r="B98" s="34">
+      <c r="A98" s="32"/>
+      <c r="B98" s="25">
         <v>15</v>
       </c>
       <c r="C98" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
@@ -3722,18 +3832,18 @@
       <c r="J98" s="2"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A99" s="23"/>
-      <c r="B99" s="34">
+      <c r="A99" s="32"/>
+      <c r="B99" s="25">
         <v>16</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -3742,58 +3852,58 @@
       <c r="J99" s="2"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A100" s="32"/>
-      <c r="B100" s="32"/>
-      <c r="C100" s="32"/>
-      <c r="D100" s="32"/>
-      <c r="E100" s="32"/>
-      <c r="F100" s="32"/>
-      <c r="G100" s="32"/>
-      <c r="H100" s="32"/>
-      <c r="I100" s="32"/>
-      <c r="J100" s="32"/>
+      <c r="A100" s="24"/>
+      <c r="B100" s="24"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="24"/>
+      <c r="I100" s="24"/>
+      <c r="J100" s="24"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A101" s="33" t="s">
+      <c r="A101" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="B101" s="25">
+        <v>1</v>
+      </c>
+      <c r="C101" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="B101" s="34">
-        <v>1</v>
-      </c>
-      <c r="C101" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G101" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H101" s="2"/>
       <c r="I101" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J101" s="2"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A102" s="23"/>
-      <c r="B102" s="34">
+      <c r="A102" s="32"/>
+      <c r="B102" s="25">
         <v>2</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
@@ -3802,18 +3912,18 @@
       <c r="J102" s="2"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A103" s="23"/>
-      <c r="B103" s="34">
+      <c r="A103" s="32"/>
+      <c r="B103" s="25">
         <v>3</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
@@ -3822,18 +3932,18 @@
       <c r="J103" s="2"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A104" s="23"/>
-      <c r="B104" s="34">
+      <c r="A104" s="32"/>
+      <c r="B104" s="25">
         <v>4</v>
       </c>
       <c r="C104" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
@@ -3842,18 +3952,18 @@
       <c r="J104" s="2"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A105" s="23"/>
-      <c r="B105" s="34">
+      <c r="A105" s="32"/>
+      <c r="B105" s="25">
         <v>5</v>
       </c>
       <c r="C105" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>61</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
@@ -3862,18 +3972,18 @@
       <c r="J105" s="2"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A106" s="23"/>
-      <c r="B106" s="34">
+      <c r="A106" s="32"/>
+      <c r="B106" s="25">
         <v>6</v>
       </c>
       <c r="C106" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -3882,18 +3992,18 @@
       <c r="J106" s="2"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A107" s="23"/>
-      <c r="B107" s="34">
+      <c r="A107" s="32"/>
+      <c r="B107" s="25">
         <v>7</v>
       </c>
       <c r="C107" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
@@ -3902,18 +4012,18 @@
       <c r="J107" s="2"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A108" s="23"/>
-      <c r="B108" s="34">
+      <c r="A108" s="32"/>
+      <c r="B108" s="25">
         <v>8</v>
       </c>
       <c r="C108" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
@@ -3922,18 +4032,18 @@
       <c r="J108" s="2"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A109" s="23"/>
-      <c r="B109" s="34">
+      <c r="A109" s="32"/>
+      <c r="B109" s="25">
         <v>9</v>
       </c>
       <c r="C109" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
@@ -3942,12 +4052,12 @@
       <c r="J109" s="2"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A110" s="23"/>
-      <c r="B110" s="34">
+      <c r="A110" s="32"/>
+      <c r="B110" s="25">
         <v>10</v>
       </c>
       <c r="C110" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>45</v>
@@ -3962,12 +4072,12 @@
       <c r="J110" s="2"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A111" s="23"/>
-      <c r="B111" s="34">
+      <c r="A111" s="32"/>
+      <c r="B111" s="25">
         <v>11</v>
       </c>
       <c r="C111" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>48</v>
@@ -3982,18 +4092,18 @@
       <c r="J111" s="2"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A112" s="23"/>
-      <c r="B112" s="34">
+      <c r="A112" s="32"/>
+      <c r="B112" s="25">
         <v>12</v>
       </c>
       <c r="C112" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
@@ -4002,15 +4112,15 @@
       <c r="J112" s="2"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A113" s="23"/>
-      <c r="B113" s="34">
+      <c r="A113" s="32"/>
+      <c r="B113" s="25">
         <v>13</v>
       </c>
       <c r="C113" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>96</v>
@@ -4022,15 +4132,15 @@
       <c r="J113" s="2"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A114" s="23"/>
-      <c r="B114" s="34">
+      <c r="A114" s="32"/>
+      <c r="B114" s="25">
         <v>14</v>
       </c>
       <c r="C114" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>106</v>
@@ -4042,18 +4152,18 @@
       <c r="J114" s="2"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A115" s="23"/>
-      <c r="B115" s="34">
+      <c r="A115" s="32"/>
+      <c r="B115" s="25">
         <v>15</v>
       </c>
       <c r="C115" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D115" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
@@ -4062,18 +4172,18 @@
       <c r="J115" s="2"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A116" s="23"/>
-      <c r="B116" s="34">
+      <c r="A116" s="32"/>
+      <c r="B116" s="25">
         <v>16</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
@@ -4082,19 +4192,214 @@
       <c r="J116" s="2"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A117" s="32"/>
-      <c r="B117" s="32"/>
-      <c r="C117" s="32"/>
-      <c r="D117" s="32"/>
-      <c r="E117" s="32"/>
-      <c r="F117" s="32"/>
-      <c r="G117" s="32"/>
-      <c r="H117" s="32"/>
-      <c r="I117" s="32"/>
-      <c r="J117" s="32"/>
+      <c r="A117" s="24"/>
+      <c r="B117" s="24"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="24"/>
+      <c r="H117" s="24"/>
+      <c r="I117" s="24"/>
+      <c r="J117" s="24"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A118" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="B118" s="23">
+        <v>1</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G118" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J118" s="2"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A119" s="29"/>
+      <c r="B119" s="23">
+        <v>2</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A120" s="29"/>
+      <c r="B120" s="23">
+        <v>3</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A121" s="29"/>
+      <c r="B121" s="26">
+        <v>4</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A122" s="29"/>
+      <c r="B122" s="26">
+        <v>5</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A123" s="30"/>
+      <c r="B123" s="26">
+        <v>6</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A124" s="24"/>
+      <c r="B124" s="24"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="24"/>
+      <c r="F124" s="24"/>
+      <c r="G124" s="24"/>
+      <c r="H124" s="24"/>
+      <c r="I124" s="24"/>
+      <c r="J124" s="24"/>
+    </row>
+    <row r="125" spans="1:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A125" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="B125" s="23">
+        <v>1</v>
+      </c>
+      <c r="C125" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G125" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J125" s="2"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A126" s="29"/>
+      <c r="B126" s="25">
+        <v>2</v>
+      </c>
+      <c r="C126" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A127" s="30"/>
+      <c r="B127" s="25">
+        <v>3</v>
+      </c>
+      <c r="C127" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B128" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="A125:A127"/>
+    <mergeCell ref="A118:A123"/>
     <mergeCell ref="A84:A99"/>
     <mergeCell ref="A101:A116"/>
     <mergeCell ref="A4:A31"/>
@@ -4125,12 +4430,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
     </row>
     <row r="2" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
@@ -4672,13 +4977,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="18" t="s">
@@ -4731,7 +5036,7 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="46" t="s">
         <v>82</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -4742,7 +5047,7 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="30"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="2" t="s">
         <v>89</v>
       </c>
@@ -4751,7 +5056,7 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="31"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="7" t="s">
         <v>83</v>
       </c>

--- a/AIS_DB,기능목록_v0.1.xlsx
+++ b/AIS_DB,기능목록_v0.1.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="246">
   <si>
     <t>발생년</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -958,6 +958,26 @@
   </si>
   <si>
     <t>rp_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1849,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4216,7 +4236,9 @@
       <c r="D118" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E118" s="2"/>
+      <c r="E118" s="2" t="s">
+        <v>241</v>
+      </c>
       <c r="F118" s="2" t="s">
         <v>179</v>
       </c>
@@ -4240,7 +4262,9 @@
       <c r="D119" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E119" s="2"/>
+      <c r="E119" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
@@ -4258,7 +4282,9 @@
       <c r="D120" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E120" s="2"/>
+      <c r="E120" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
@@ -4276,7 +4302,9 @@
       <c r="D121" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E121" s="2"/>
+      <c r="E121" s="2" t="s">
+        <v>244</v>
+      </c>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
@@ -4294,7 +4322,9 @@
       <c r="D122" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E122" s="2"/>
+      <c r="E122" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
@@ -4312,7 +4342,9 @@
       <c r="D123" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E123" s="2"/>
+      <c r="E123" s="2" t="s">
+        <v>241</v>
+      </c>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
@@ -4398,15 +4430,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A33:A48"/>
+    <mergeCell ref="A50:A65"/>
+    <mergeCell ref="A67:A82"/>
     <mergeCell ref="A125:A127"/>
     <mergeCell ref="A118:A123"/>
     <mergeCell ref="A84:A99"/>
     <mergeCell ref="A101:A116"/>
     <mergeCell ref="A4:A31"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A33:A48"/>
-    <mergeCell ref="A50:A65"/>
-    <mergeCell ref="A67:A82"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AIS_DB,기능목록_v0.1.xlsx
+++ b/AIS_DB,기능목록_v0.1.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="259">
   <si>
     <t>발생년</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -925,59 +925,112 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bd_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bd_cont</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bd_regdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bd_cnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rp_regdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rp_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bd_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>비밀번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bd_title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bd_cont</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bd_passwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bd_regdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bd_cnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rp_regdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rp_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(16)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
+    <t>닉네임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_MEMBER
+(회원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rp_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1524,21 +1577,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1562,6 +1600,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1867,10 +1920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J128"/>
+  <dimension ref="A1:J134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="E124" sqref="E124"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1886,30 +1939,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="36"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="20" t="s">
@@ -1944,7 +1997,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="35" t="s">
         <v>180</v>
       </c>
       <c r="B4" s="1">
@@ -1972,7 +2025,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="32"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -1992,7 +2045,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="32"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -2012,7 +2065,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="32"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -2032,7 +2085,7 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="32"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -2052,7 +2105,7 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="32"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -2072,7 +2125,7 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="32"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -2092,7 +2145,7 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="32"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -2112,7 +2165,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="32"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -2132,7 +2185,7 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="32"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="1">
         <v>10</v>
       </c>
@@ -2152,7 +2205,7 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="32"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="1">
         <v>11</v>
       </c>
@@ -2172,7 +2225,7 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="32"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="1">
         <v>12</v>
       </c>
@@ -2192,7 +2245,7 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="32"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="1">
         <v>13</v>
       </c>
@@ -2212,7 +2265,7 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="32"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="1">
         <v>14</v>
       </c>
@@ -2232,7 +2285,7 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="32"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="1">
         <v>15</v>
       </c>
@@ -2252,7 +2305,7 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" s="32"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="1">
         <v>16</v>
       </c>
@@ -2272,7 +2325,7 @@
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A20" s="32"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="1">
         <v>17</v>
       </c>
@@ -2292,7 +2345,7 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A21" s="32"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="1">
         <v>18</v>
       </c>
@@ -2312,7 +2365,7 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A22" s="32"/>
+      <c r="A22" s="36"/>
       <c r="B22" s="1">
         <v>19</v>
       </c>
@@ -2332,7 +2385,7 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A23" s="32"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="1">
         <v>20</v>
       </c>
@@ -2352,7 +2405,7 @@
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="32"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="1">
         <v>21</v>
       </c>
@@ -2372,7 +2425,7 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="32"/>
+      <c r="A25" s="36"/>
       <c r="B25" s="1">
         <v>22</v>
       </c>
@@ -2392,7 +2445,7 @@
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" s="32"/>
+      <c r="A26" s="36"/>
       <c r="B26" s="1">
         <v>23</v>
       </c>
@@ -2412,7 +2465,7 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" s="32"/>
+      <c r="A27" s="36"/>
       <c r="B27" s="1">
         <v>24</v>
       </c>
@@ -2432,7 +2485,7 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="32"/>
+      <c r="A28" s="36"/>
       <c r="B28" s="1">
         <v>25</v>
       </c>
@@ -2452,7 +2505,7 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29" s="32"/>
+      <c r="A29" s="36"/>
       <c r="B29" s="1">
         <v>26</v>
       </c>
@@ -2472,7 +2525,7 @@
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="32"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="1">
         <v>27</v>
       </c>
@@ -2492,7 +2545,7 @@
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="32"/>
+      <c r="A31" s="36"/>
       <c r="B31" s="1">
         <v>28</v>
       </c>
@@ -2524,7 +2577,7 @@
       <c r="J32" s="24"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="35" t="s">
         <v>212</v>
       </c>
       <c r="B33" s="25">
@@ -2552,7 +2605,7 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" s="32"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="25">
         <v>2</v>
       </c>
@@ -2572,7 +2625,7 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A35" s="32"/>
+      <c r="A35" s="36"/>
       <c r="B35" s="25">
         <v>3</v>
       </c>
@@ -2592,7 +2645,7 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36" s="32"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="25">
         <v>4</v>
       </c>
@@ -2612,7 +2665,7 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A37" s="32"/>
+      <c r="A37" s="36"/>
       <c r="B37" s="25">
         <v>5</v>
       </c>
@@ -2632,7 +2685,7 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="32"/>
+      <c r="A38" s="36"/>
       <c r="B38" s="25">
         <v>6</v>
       </c>
@@ -2652,7 +2705,7 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" s="32"/>
+      <c r="A39" s="36"/>
       <c r="B39" s="25">
         <v>7</v>
       </c>
@@ -2672,7 +2725,7 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A40" s="32"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="25">
         <v>8</v>
       </c>
@@ -2692,7 +2745,7 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A41" s="32"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="25">
         <v>9</v>
       </c>
@@ -2712,7 +2765,7 @@
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A42" s="32"/>
+      <c r="A42" s="36"/>
       <c r="B42" s="25">
         <v>10</v>
       </c>
@@ -2732,7 +2785,7 @@
       <c r="J42" s="2"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A43" s="32"/>
+      <c r="A43" s="36"/>
       <c r="B43" s="25">
         <v>11</v>
       </c>
@@ -2752,7 +2805,7 @@
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A44" s="32"/>
+      <c r="A44" s="36"/>
       <c r="B44" s="25">
         <v>12</v>
       </c>
@@ -2772,7 +2825,7 @@
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A45" s="32"/>
+      <c r="A45" s="36"/>
       <c r="B45" s="25">
         <v>13</v>
       </c>
@@ -2792,7 +2845,7 @@
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A46" s="32"/>
+      <c r="A46" s="36"/>
       <c r="B46" s="25">
         <v>14</v>
       </c>
@@ -2812,7 +2865,7 @@
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A47" s="32"/>
+      <c r="A47" s="36"/>
       <c r="B47" s="25">
         <v>15</v>
       </c>
@@ -2832,7 +2885,7 @@
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A48" s="32"/>
+      <c r="A48" s="36"/>
       <c r="B48" s="25">
         <v>16</v>
       </c>
@@ -2864,7 +2917,7 @@
       <c r="J49" s="24"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="35" t="s">
         <v>213</v>
       </c>
       <c r="B50" s="25">
@@ -2892,7 +2945,7 @@
       <c r="J50" s="2"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A51" s="32"/>
+      <c r="A51" s="36"/>
       <c r="B51" s="25">
         <v>2</v>
       </c>
@@ -2912,7 +2965,7 @@
       <c r="J51" s="2"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A52" s="32"/>
+      <c r="A52" s="36"/>
       <c r="B52" s="25">
         <v>3</v>
       </c>
@@ -2932,7 +2985,7 @@
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A53" s="32"/>
+      <c r="A53" s="36"/>
       <c r="B53" s="25">
         <v>4</v>
       </c>
@@ -2952,7 +3005,7 @@
       <c r="J53" s="2"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A54" s="32"/>
+      <c r="A54" s="36"/>
       <c r="B54" s="25">
         <v>5</v>
       </c>
@@ -2972,7 +3025,7 @@
       <c r="J54" s="2"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A55" s="32"/>
+      <c r="A55" s="36"/>
       <c r="B55" s="25">
         <v>6</v>
       </c>
@@ -2992,7 +3045,7 @@
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A56" s="32"/>
+      <c r="A56" s="36"/>
       <c r="B56" s="25">
         <v>7</v>
       </c>
@@ -3012,7 +3065,7 @@
       <c r="J56" s="2"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A57" s="32"/>
+      <c r="A57" s="36"/>
       <c r="B57" s="25">
         <v>8</v>
       </c>
@@ -3032,7 +3085,7 @@
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A58" s="32"/>
+      <c r="A58" s="36"/>
       <c r="B58" s="25">
         <v>9</v>
       </c>
@@ -3052,7 +3105,7 @@
       <c r="J58" s="2"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A59" s="32"/>
+      <c r="A59" s="36"/>
       <c r="B59" s="25">
         <v>10</v>
       </c>
@@ -3072,7 +3125,7 @@
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A60" s="32"/>
+      <c r="A60" s="36"/>
       <c r="B60" s="25">
         <v>11</v>
       </c>
@@ -3092,7 +3145,7 @@
       <c r="J60" s="2"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A61" s="32"/>
+      <c r="A61" s="36"/>
       <c r="B61" s="25">
         <v>12</v>
       </c>
@@ -3112,7 +3165,7 @@
       <c r="J61" s="2"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A62" s="32"/>
+      <c r="A62" s="36"/>
       <c r="B62" s="25">
         <v>13</v>
       </c>
@@ -3132,7 +3185,7 @@
       <c r="J62" s="2"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A63" s="32"/>
+      <c r="A63" s="36"/>
       <c r="B63" s="25">
         <v>14</v>
       </c>
@@ -3152,7 +3205,7 @@
       <c r="J63" s="2"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A64" s="32"/>
+      <c r="A64" s="36"/>
       <c r="B64" s="25">
         <v>15</v>
       </c>
@@ -3172,7 +3225,7 @@
       <c r="J64" s="2"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A65" s="32"/>
+      <c r="A65" s="36"/>
       <c r="B65" s="25">
         <v>16</v>
       </c>
@@ -3204,7 +3257,7 @@
       <c r="J66" s="24"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A67" s="31" t="s">
+      <c r="A67" s="35" t="s">
         <v>214</v>
       </c>
       <c r="B67" s="25">
@@ -3232,7 +3285,7 @@
       <c r="J67" s="2"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A68" s="32"/>
+      <c r="A68" s="36"/>
       <c r="B68" s="25">
         <v>2</v>
       </c>
@@ -3252,7 +3305,7 @@
       <c r="J68" s="2"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A69" s="32"/>
+      <c r="A69" s="36"/>
       <c r="B69" s="25">
         <v>3</v>
       </c>
@@ -3272,7 +3325,7 @@
       <c r="J69" s="2"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A70" s="32"/>
+      <c r="A70" s="36"/>
       <c r="B70" s="25">
         <v>4</v>
       </c>
@@ -3292,7 +3345,7 @@
       <c r="J70" s="2"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A71" s="32"/>
+      <c r="A71" s="36"/>
       <c r="B71" s="25">
         <v>5</v>
       </c>
@@ -3312,7 +3365,7 @@
       <c r="J71" s="2"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A72" s="32"/>
+      <c r="A72" s="36"/>
       <c r="B72" s="25">
         <v>6</v>
       </c>
@@ -3332,7 +3385,7 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A73" s="32"/>
+      <c r="A73" s="36"/>
       <c r="B73" s="25">
         <v>7</v>
       </c>
@@ -3352,7 +3405,7 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A74" s="32"/>
+      <c r="A74" s="36"/>
       <c r="B74" s="25">
         <v>8</v>
       </c>
@@ -3372,7 +3425,7 @@
       <c r="J74" s="2"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A75" s="32"/>
+      <c r="A75" s="36"/>
       <c r="B75" s="25">
         <v>9</v>
       </c>
@@ -3392,7 +3445,7 @@
       <c r="J75" s="2"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A76" s="32"/>
+      <c r="A76" s="36"/>
       <c r="B76" s="25">
         <v>10</v>
       </c>
@@ -3412,7 +3465,7 @@
       <c r="J76" s="2"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A77" s="32"/>
+      <c r="A77" s="36"/>
       <c r="B77" s="25">
         <v>11</v>
       </c>
@@ -3432,7 +3485,7 @@
       <c r="J77" s="2"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A78" s="32"/>
+      <c r="A78" s="36"/>
       <c r="B78" s="25">
         <v>12</v>
       </c>
@@ -3452,7 +3505,7 @@
       <c r="J78" s="2"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A79" s="32"/>
+      <c r="A79" s="36"/>
       <c r="B79" s="25">
         <v>13</v>
       </c>
@@ -3472,7 +3525,7 @@
       <c r="J79" s="2"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A80" s="32"/>
+      <c r="A80" s="36"/>
       <c r="B80" s="25">
         <v>14</v>
       </c>
@@ -3492,7 +3545,7 @@
       <c r="J80" s="2"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A81" s="32"/>
+      <c r="A81" s="36"/>
       <c r="B81" s="25">
         <v>15</v>
       </c>
@@ -3512,7 +3565,7 @@
       <c r="J81" s="2"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A82" s="32"/>
+      <c r="A82" s="36"/>
       <c r="B82" s="25">
         <v>16</v>
       </c>
@@ -3544,7 +3597,7 @@
       <c r="J83" s="24"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A84" s="31" t="s">
+      <c r="A84" s="35" t="s">
         <v>215</v>
       </c>
       <c r="B84" s="25">
@@ -3572,7 +3625,7 @@
       <c r="J84" s="2"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A85" s="32"/>
+      <c r="A85" s="36"/>
       <c r="B85" s="25">
         <v>2</v>
       </c>
@@ -3592,7 +3645,7 @@
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A86" s="32"/>
+      <c r="A86" s="36"/>
       <c r="B86" s="25">
         <v>3</v>
       </c>
@@ -3612,7 +3665,7 @@
       <c r="J86" s="2"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A87" s="32"/>
+      <c r="A87" s="36"/>
       <c r="B87" s="25">
         <v>4</v>
       </c>
@@ -3632,7 +3685,7 @@
       <c r="J87" s="2"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A88" s="32"/>
+      <c r="A88" s="36"/>
       <c r="B88" s="25">
         <v>5</v>
       </c>
@@ -3652,7 +3705,7 @@
       <c r="J88" s="2"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A89" s="32"/>
+      <c r="A89" s="36"/>
       <c r="B89" s="25">
         <v>6</v>
       </c>
@@ -3672,7 +3725,7 @@
       <c r="J89" s="2"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A90" s="32"/>
+      <c r="A90" s="36"/>
       <c r="B90" s="25">
         <v>7</v>
       </c>
@@ -3692,7 +3745,7 @@
       <c r="J90" s="2"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A91" s="32"/>
+      <c r="A91" s="36"/>
       <c r="B91" s="25">
         <v>8</v>
       </c>
@@ -3712,7 +3765,7 @@
       <c r="J91" s="2"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A92" s="32"/>
+      <c r="A92" s="36"/>
       <c r="B92" s="25">
         <v>9</v>
       </c>
@@ -3732,7 +3785,7 @@
       <c r="J92" s="2"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A93" s="32"/>
+      <c r="A93" s="36"/>
       <c r="B93" s="25">
         <v>10</v>
       </c>
@@ -3752,7 +3805,7 @@
       <c r="J93" s="2"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A94" s="32"/>
+      <c r="A94" s="36"/>
       <c r="B94" s="25">
         <v>11</v>
       </c>
@@ -3772,7 +3825,7 @@
       <c r="J94" s="2"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A95" s="32"/>
+      <c r="A95" s="36"/>
       <c r="B95" s="25">
         <v>12</v>
       </c>
@@ -3792,7 +3845,7 @@
       <c r="J95" s="2"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A96" s="32"/>
+      <c r="A96" s="36"/>
       <c r="B96" s="25">
         <v>13</v>
       </c>
@@ -3812,7 +3865,7 @@
       <c r="J96" s="2"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A97" s="32"/>
+      <c r="A97" s="36"/>
       <c r="B97" s="25">
         <v>14</v>
       </c>
@@ -3832,7 +3885,7 @@
       <c r="J97" s="2"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A98" s="32"/>
+      <c r="A98" s="36"/>
       <c r="B98" s="25">
         <v>15</v>
       </c>
@@ -3852,7 +3905,7 @@
       <c r="J98" s="2"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A99" s="32"/>
+      <c r="A99" s="36"/>
       <c r="B99" s="25">
         <v>16</v>
       </c>
@@ -3884,7 +3937,7 @@
       <c r="J100" s="24"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A101" s="31" t="s">
+      <c r="A101" s="35" t="s">
         <v>216</v>
       </c>
       <c r="B101" s="25">
@@ -3912,7 +3965,7 @@
       <c r="J101" s="2"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A102" s="32"/>
+      <c r="A102" s="36"/>
       <c r="B102" s="25">
         <v>2</v>
       </c>
@@ -3932,7 +3985,7 @@
       <c r="J102" s="2"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A103" s="32"/>
+      <c r="A103" s="36"/>
       <c r="B103" s="25">
         <v>3</v>
       </c>
@@ -3952,7 +4005,7 @@
       <c r="J103" s="2"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A104" s="32"/>
+      <c r="A104" s="36"/>
       <c r="B104" s="25">
         <v>4</v>
       </c>
@@ -3972,7 +4025,7 @@
       <c r="J104" s="2"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A105" s="32"/>
+      <c r="A105" s="36"/>
       <c r="B105" s="25">
         <v>5</v>
       </c>
@@ -3992,7 +4045,7 @@
       <c r="J105" s="2"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A106" s="32"/>
+      <c r="A106" s="36"/>
       <c r="B106" s="25">
         <v>6</v>
       </c>
@@ -4012,7 +4065,7 @@
       <c r="J106" s="2"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A107" s="32"/>
+      <c r="A107" s="36"/>
       <c r="B107" s="25">
         <v>7</v>
       </c>
@@ -4032,7 +4085,7 @@
       <c r="J107" s="2"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A108" s="32"/>
+      <c r="A108" s="36"/>
       <c r="B108" s="25">
         <v>8</v>
       </c>
@@ -4052,7 +4105,7 @@
       <c r="J108" s="2"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A109" s="32"/>
+      <c r="A109" s="36"/>
       <c r="B109" s="25">
         <v>9</v>
       </c>
@@ -4072,7 +4125,7 @@
       <c r="J109" s="2"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A110" s="32"/>
+      <c r="A110" s="36"/>
       <c r="B110" s="25">
         <v>10</v>
       </c>
@@ -4092,7 +4145,7 @@
       <c r="J110" s="2"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A111" s="32"/>
+      <c r="A111" s="36"/>
       <c r="B111" s="25">
         <v>11</v>
       </c>
@@ -4112,7 +4165,7 @@
       <c r="J111" s="2"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A112" s="32"/>
+      <c r="A112" s="36"/>
       <c r="B112" s="25">
         <v>12</v>
       </c>
@@ -4132,7 +4185,7 @@
       <c r="J112" s="2"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A113" s="32"/>
+      <c r="A113" s="36"/>
       <c r="B113" s="25">
         <v>13</v>
       </c>
@@ -4152,7 +4205,7 @@
       <c r="J113" s="2"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A114" s="32"/>
+      <c r="A114" s="36"/>
       <c r="B114" s="25">
         <v>14</v>
       </c>
@@ -4172,7 +4225,7 @@
       <c r="J114" s="2"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A115" s="32"/>
+      <c r="A115" s="36"/>
       <c r="B115" s="25">
         <v>15</v>
       </c>
@@ -4192,7 +4245,7 @@
       <c r="J115" s="2"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A116" s="32"/>
+      <c r="A116" s="36"/>
       <c r="B116" s="25">
         <v>16</v>
       </c>
@@ -4224,7 +4277,7 @@
       <c r="J117" s="24"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A118" s="28" t="s">
+      <c r="A118" s="37" t="s">
         <v>222</v>
       </c>
       <c r="B118" s="23">
@@ -4234,10 +4287,10 @@
         <v>223</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>179</v>
@@ -4252,7 +4305,7 @@
       <c r="J118" s="2"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A119" s="29"/>
+      <c r="A119" s="38"/>
       <c r="B119" s="23">
         <v>2</v>
       </c>
@@ -4260,10 +4313,10 @@
         <v>224</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
@@ -4272,7 +4325,7 @@
       <c r="J119" s="2"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A120" s="29"/>
+      <c r="A120" s="38"/>
       <c r="B120" s="23">
         <v>3</v>
       </c>
@@ -4280,10 +4333,10 @@
         <v>229</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
@@ -4292,18 +4345,18 @@
       <c r="J120" s="2"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A121" s="29"/>
+      <c r="A121" s="38"/>
       <c r="B121" s="26">
         <v>4</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
@@ -4312,7 +4365,7 @@
       <c r="J121" s="2"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A122" s="29"/>
+      <c r="A122" s="38"/>
       <c r="B122" s="26">
         <v>5</v>
       </c>
@@ -4320,10 +4373,10 @@
         <v>225</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
@@ -4332,7 +4385,7 @@
       <c r="J122" s="2"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A123" s="30"/>
+      <c r="A123" s="39"/>
       <c r="B123" s="26">
         <v>6</v>
       </c>
@@ -4340,10 +4393,10 @@
         <v>226</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
@@ -4363,8 +4416,8 @@
       <c r="I124" s="24"/>
       <c r="J124" s="24"/>
     </row>
-    <row r="125" spans="1:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="28" t="s">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A125" s="37" t="s">
         <v>227</v>
       </c>
       <c r="B125" s="23">
@@ -4374,7 +4427,7 @@
         <v>228</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" s="2" t="s">
@@ -4390,33 +4443,33 @@
       <c r="J125" s="2"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A126" s="29"/>
-      <c r="B126" s="25">
+      <c r="A126" s="38"/>
+      <c r="B126" s="27">
         <v>2</v>
       </c>
       <c r="C126" s="22" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
+      <c r="G126" s="27"/>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A127" s="30"/>
+      <c r="A127" s="38"/>
       <c r="B127" s="25">
         <v>3</v>
       </c>
       <c r="C127" s="22" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
@@ -4426,15 +4479,141 @@
       <c r="J127" s="2"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B128" s="27"/>
+      <c r="A128" s="39"/>
+      <c r="B128" s="25">
+        <v>4</v>
+      </c>
+      <c r="C128" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A129" s="24"/>
+      <c r="B129" s="24"/>
+      <c r="C129" s="24"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="24"/>
+      <c r="F129" s="24"/>
+      <c r="G129" s="24"/>
+      <c r="H129" s="24"/>
+      <c r="I129" s="24"/>
+      <c r="J129" s="24"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A130" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="B130" s="25">
+        <v>1</v>
+      </c>
+      <c r="C130" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="D130" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G130" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J130" s="2"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A131" s="36"/>
+      <c r="B131" s="25">
+        <v>2</v>
+      </c>
+      <c r="C131" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="D131" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A132" s="36"/>
+      <c r="B132" s="25">
+        <v>3</v>
+      </c>
+      <c r="C132" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="D132" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A133" s="36"/>
+      <c r="B133" s="25">
+        <v>4</v>
+      </c>
+      <c r="C133" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="D133" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A134" s="36"/>
+      <c r="B134" s="25">
+        <v>5</v>
+      </c>
+      <c r="C134" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="D134" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="A130:A134"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="A33:A48"/>
     <mergeCell ref="A50:A65"/>
     <mergeCell ref="A67:A82"/>
-    <mergeCell ref="A125:A127"/>
+    <mergeCell ref="A125:A128"/>
     <mergeCell ref="A118:A123"/>
     <mergeCell ref="A84:A99"/>
     <mergeCell ref="A101:A116"/>

--- a/AIS_DB,기능목록_v0.1.xlsx
+++ b/AIS_DB,기능목록_v0.1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5844"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5844" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="테이블명세표" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="263">
   <si>
     <t>발생년</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1031,6 +1031,22 @@
   </si>
   <si>
     <t>rp_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">회원가입 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1119,7 +1135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1480,6 +1496,30 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -1495,7 +1535,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1580,6 +1620,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1599,12 +1645,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1639,6 +1679,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1922,7 +1977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+    <sheetView topLeftCell="A118" workbookViewId="0">
       <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
@@ -1939,30 +1994,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="20" t="s">
@@ -1997,7 +2052,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="28" t="s">
         <v>180</v>
       </c>
       <c r="B4" s="1">
@@ -2025,7 +2080,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="36"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -2045,7 +2100,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="36"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -2065,7 +2120,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="36"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -2085,7 +2140,7 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="36"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -2105,7 +2160,7 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="36"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -2125,7 +2180,7 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="36"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -2145,7 +2200,7 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="36"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -2165,7 +2220,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="36"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -2185,7 +2240,7 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="36"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="1">
         <v>10</v>
       </c>
@@ -2205,7 +2260,7 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="36"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="1">
         <v>11</v>
       </c>
@@ -2225,7 +2280,7 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="36"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="1">
         <v>12</v>
       </c>
@@ -2245,7 +2300,7 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="36"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="1">
         <v>13</v>
       </c>
@@ -2265,7 +2320,7 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="36"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="1">
         <v>14</v>
       </c>
@@ -2285,7 +2340,7 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="36"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="1">
         <v>15</v>
       </c>
@@ -2305,7 +2360,7 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" s="36"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="1">
         <v>16</v>
       </c>
@@ -2325,7 +2380,7 @@
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A20" s="36"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="1">
         <v>17</v>
       </c>
@@ -2345,7 +2400,7 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A21" s="36"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="1">
         <v>18</v>
       </c>
@@ -2365,7 +2420,7 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A22" s="36"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="1">
         <v>19</v>
       </c>
@@ -2385,7 +2440,7 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A23" s="36"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="1">
         <v>20</v>
       </c>
@@ -2405,7 +2460,7 @@
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="36"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="1">
         <v>21</v>
       </c>
@@ -2425,7 +2480,7 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="36"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="1">
         <v>22</v>
       </c>
@@ -2445,7 +2500,7 @@
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" s="36"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="1">
         <v>23</v>
       </c>
@@ -2465,7 +2520,7 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" s="36"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="1">
         <v>24</v>
       </c>
@@ -2485,7 +2540,7 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="36"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="1">
         <v>25</v>
       </c>
@@ -2505,7 +2560,7 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29" s="36"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="1">
         <v>26</v>
       </c>
@@ -2525,7 +2580,7 @@
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="36"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="1">
         <v>27</v>
       </c>
@@ -2545,7 +2600,7 @@
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="36"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="1">
         <v>28</v>
       </c>
@@ -2577,7 +2632,7 @@
       <c r="J32" s="24"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="28" t="s">
         <v>212</v>
       </c>
       <c r="B33" s="25">
@@ -2605,7 +2660,7 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" s="36"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="25">
         <v>2</v>
       </c>
@@ -2625,7 +2680,7 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A35" s="36"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="25">
         <v>3</v>
       </c>
@@ -2645,7 +2700,7 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36" s="36"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="25">
         <v>4</v>
       </c>
@@ -2665,7 +2720,7 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A37" s="36"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="25">
         <v>5</v>
       </c>
@@ -2685,7 +2740,7 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="36"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="25">
         <v>6</v>
       </c>
@@ -2705,7 +2760,7 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" s="36"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="25">
         <v>7</v>
       </c>
@@ -2725,7 +2780,7 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A40" s="36"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="25">
         <v>8</v>
       </c>
@@ -2745,7 +2800,7 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A41" s="36"/>
+      <c r="A41" s="29"/>
       <c r="B41" s="25">
         <v>9</v>
       </c>
@@ -2765,7 +2820,7 @@
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A42" s="36"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="25">
         <v>10</v>
       </c>
@@ -2785,7 +2840,7 @@
       <c r="J42" s="2"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A43" s="36"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="25">
         <v>11</v>
       </c>
@@ -2805,7 +2860,7 @@
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A44" s="36"/>
+      <c r="A44" s="29"/>
       <c r="B44" s="25">
         <v>12</v>
       </c>
@@ -2825,7 +2880,7 @@
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A45" s="36"/>
+      <c r="A45" s="29"/>
       <c r="B45" s="25">
         <v>13</v>
       </c>
@@ -2845,7 +2900,7 @@
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A46" s="36"/>
+      <c r="A46" s="29"/>
       <c r="B46" s="25">
         <v>14</v>
       </c>
@@ -2865,7 +2920,7 @@
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A47" s="36"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="25">
         <v>15</v>
       </c>
@@ -2885,7 +2940,7 @@
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A48" s="36"/>
+      <c r="A48" s="29"/>
       <c r="B48" s="25">
         <v>16</v>
       </c>
@@ -2917,7 +2972,7 @@
       <c r="J49" s="24"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A50" s="35" t="s">
+      <c r="A50" s="28" t="s">
         <v>213</v>
       </c>
       <c r="B50" s="25">
@@ -2945,7 +3000,7 @@
       <c r="J50" s="2"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A51" s="36"/>
+      <c r="A51" s="29"/>
       <c r="B51" s="25">
         <v>2</v>
       </c>
@@ -2965,7 +3020,7 @@
       <c r="J51" s="2"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A52" s="36"/>
+      <c r="A52" s="29"/>
       <c r="B52" s="25">
         <v>3</v>
       </c>
@@ -2985,7 +3040,7 @@
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A53" s="36"/>
+      <c r="A53" s="29"/>
       <c r="B53" s="25">
         <v>4</v>
       </c>
@@ -3005,7 +3060,7 @@
       <c r="J53" s="2"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A54" s="36"/>
+      <c r="A54" s="29"/>
       <c r="B54" s="25">
         <v>5</v>
       </c>
@@ -3025,7 +3080,7 @@
       <c r="J54" s="2"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A55" s="36"/>
+      <c r="A55" s="29"/>
       <c r="B55" s="25">
         <v>6</v>
       </c>
@@ -3045,7 +3100,7 @@
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A56" s="36"/>
+      <c r="A56" s="29"/>
       <c r="B56" s="25">
         <v>7</v>
       </c>
@@ -3065,7 +3120,7 @@
       <c r="J56" s="2"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A57" s="36"/>
+      <c r="A57" s="29"/>
       <c r="B57" s="25">
         <v>8</v>
       </c>
@@ -3085,7 +3140,7 @@
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A58" s="36"/>
+      <c r="A58" s="29"/>
       <c r="B58" s="25">
         <v>9</v>
       </c>
@@ -3105,7 +3160,7 @@
       <c r="J58" s="2"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A59" s="36"/>
+      <c r="A59" s="29"/>
       <c r="B59" s="25">
         <v>10</v>
       </c>
@@ -3125,7 +3180,7 @@
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A60" s="36"/>
+      <c r="A60" s="29"/>
       <c r="B60" s="25">
         <v>11</v>
       </c>
@@ -3145,7 +3200,7 @@
       <c r="J60" s="2"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A61" s="36"/>
+      <c r="A61" s="29"/>
       <c r="B61" s="25">
         <v>12</v>
       </c>
@@ -3165,7 +3220,7 @@
       <c r="J61" s="2"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A62" s="36"/>
+      <c r="A62" s="29"/>
       <c r="B62" s="25">
         <v>13</v>
       </c>
@@ -3185,7 +3240,7 @@
       <c r="J62" s="2"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A63" s="36"/>
+      <c r="A63" s="29"/>
       <c r="B63" s="25">
         <v>14</v>
       </c>
@@ -3205,7 +3260,7 @@
       <c r="J63" s="2"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A64" s="36"/>
+      <c r="A64" s="29"/>
       <c r="B64" s="25">
         <v>15</v>
       </c>
@@ -3225,7 +3280,7 @@
       <c r="J64" s="2"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A65" s="36"/>
+      <c r="A65" s="29"/>
       <c r="B65" s="25">
         <v>16</v>
       </c>
@@ -3257,7 +3312,7 @@
       <c r="J66" s="24"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A67" s="35" t="s">
+      <c r="A67" s="28" t="s">
         <v>214</v>
       </c>
       <c r="B67" s="25">
@@ -3285,7 +3340,7 @@
       <c r="J67" s="2"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A68" s="36"/>
+      <c r="A68" s="29"/>
       <c r="B68" s="25">
         <v>2</v>
       </c>
@@ -3305,7 +3360,7 @@
       <c r="J68" s="2"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A69" s="36"/>
+      <c r="A69" s="29"/>
       <c r="B69" s="25">
         <v>3</v>
       </c>
@@ -3325,7 +3380,7 @@
       <c r="J69" s="2"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A70" s="36"/>
+      <c r="A70" s="29"/>
       <c r="B70" s="25">
         <v>4</v>
       </c>
@@ -3345,7 +3400,7 @@
       <c r="J70" s="2"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A71" s="36"/>
+      <c r="A71" s="29"/>
       <c r="B71" s="25">
         <v>5</v>
       </c>
@@ -3365,7 +3420,7 @@
       <c r="J71" s="2"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A72" s="36"/>
+      <c r="A72" s="29"/>
       <c r="B72" s="25">
         <v>6</v>
       </c>
@@ -3385,7 +3440,7 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A73" s="36"/>
+      <c r="A73" s="29"/>
       <c r="B73" s="25">
         <v>7</v>
       </c>
@@ -3405,7 +3460,7 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A74" s="36"/>
+      <c r="A74" s="29"/>
       <c r="B74" s="25">
         <v>8</v>
       </c>
@@ -3425,7 +3480,7 @@
       <c r="J74" s="2"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A75" s="36"/>
+      <c r="A75" s="29"/>
       <c r="B75" s="25">
         <v>9</v>
       </c>
@@ -3445,7 +3500,7 @@
       <c r="J75" s="2"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A76" s="36"/>
+      <c r="A76" s="29"/>
       <c r="B76" s="25">
         <v>10</v>
       </c>
@@ -3465,7 +3520,7 @@
       <c r="J76" s="2"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A77" s="36"/>
+      <c r="A77" s="29"/>
       <c r="B77" s="25">
         <v>11</v>
       </c>
@@ -3485,7 +3540,7 @@
       <c r="J77" s="2"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A78" s="36"/>
+      <c r="A78" s="29"/>
       <c r="B78" s="25">
         <v>12</v>
       </c>
@@ -3505,7 +3560,7 @@
       <c r="J78" s="2"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A79" s="36"/>
+      <c r="A79" s="29"/>
       <c r="B79" s="25">
         <v>13</v>
       </c>
@@ -3525,7 +3580,7 @@
       <c r="J79" s="2"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A80" s="36"/>
+      <c r="A80" s="29"/>
       <c r="B80" s="25">
         <v>14</v>
       </c>
@@ -3545,7 +3600,7 @@
       <c r="J80" s="2"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A81" s="36"/>
+      <c r="A81" s="29"/>
       <c r="B81" s="25">
         <v>15</v>
       </c>
@@ -3565,7 +3620,7 @@
       <c r="J81" s="2"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A82" s="36"/>
+      <c r="A82" s="29"/>
       <c r="B82" s="25">
         <v>16</v>
       </c>
@@ -3597,7 +3652,7 @@
       <c r="J83" s="24"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A84" s="35" t="s">
+      <c r="A84" s="28" t="s">
         <v>215</v>
       </c>
       <c r="B84" s="25">
@@ -3625,7 +3680,7 @@
       <c r="J84" s="2"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A85" s="36"/>
+      <c r="A85" s="29"/>
       <c r="B85" s="25">
         <v>2</v>
       </c>
@@ -3645,7 +3700,7 @@
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A86" s="36"/>
+      <c r="A86" s="29"/>
       <c r="B86" s="25">
         <v>3</v>
       </c>
@@ -3665,7 +3720,7 @@
       <c r="J86" s="2"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A87" s="36"/>
+      <c r="A87" s="29"/>
       <c r="B87" s="25">
         <v>4</v>
       </c>
@@ -3685,7 +3740,7 @@
       <c r="J87" s="2"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A88" s="36"/>
+      <c r="A88" s="29"/>
       <c r="B88" s="25">
         <v>5</v>
       </c>
@@ -3705,7 +3760,7 @@
       <c r="J88" s="2"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A89" s="36"/>
+      <c r="A89" s="29"/>
       <c r="B89" s="25">
         <v>6</v>
       </c>
@@ -3725,7 +3780,7 @@
       <c r="J89" s="2"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A90" s="36"/>
+      <c r="A90" s="29"/>
       <c r="B90" s="25">
         <v>7</v>
       </c>
@@ -3745,7 +3800,7 @@
       <c r="J90" s="2"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A91" s="36"/>
+      <c r="A91" s="29"/>
       <c r="B91" s="25">
         <v>8</v>
       </c>
@@ -3765,7 +3820,7 @@
       <c r="J91" s="2"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A92" s="36"/>
+      <c r="A92" s="29"/>
       <c r="B92" s="25">
         <v>9</v>
       </c>
@@ -3785,7 +3840,7 @@
       <c r="J92" s="2"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A93" s="36"/>
+      <c r="A93" s="29"/>
       <c r="B93" s="25">
         <v>10</v>
       </c>
@@ -3805,7 +3860,7 @@
       <c r="J93" s="2"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A94" s="36"/>
+      <c r="A94" s="29"/>
       <c r="B94" s="25">
         <v>11</v>
       </c>
@@ -3825,7 +3880,7 @@
       <c r="J94" s="2"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A95" s="36"/>
+      <c r="A95" s="29"/>
       <c r="B95" s="25">
         <v>12</v>
       </c>
@@ -3845,7 +3900,7 @@
       <c r="J95" s="2"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A96" s="36"/>
+      <c r="A96" s="29"/>
       <c r="B96" s="25">
         <v>13</v>
       </c>
@@ -3865,7 +3920,7 @@
       <c r="J96" s="2"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A97" s="36"/>
+      <c r="A97" s="29"/>
       <c r="B97" s="25">
         <v>14</v>
       </c>
@@ -3885,7 +3940,7 @@
       <c r="J97" s="2"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A98" s="36"/>
+      <c r="A98" s="29"/>
       <c r="B98" s="25">
         <v>15</v>
       </c>
@@ -3905,7 +3960,7 @@
       <c r="J98" s="2"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A99" s="36"/>
+      <c r="A99" s="29"/>
       <c r="B99" s="25">
         <v>16</v>
       </c>
@@ -3937,7 +3992,7 @@
       <c r="J100" s="24"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A101" s="35" t="s">
+      <c r="A101" s="28" t="s">
         <v>216</v>
       </c>
       <c r="B101" s="25">
@@ -3965,7 +4020,7 @@
       <c r="J101" s="2"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A102" s="36"/>
+      <c r="A102" s="29"/>
       <c r="B102" s="25">
         <v>2</v>
       </c>
@@ -3985,7 +4040,7 @@
       <c r="J102" s="2"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A103" s="36"/>
+      <c r="A103" s="29"/>
       <c r="B103" s="25">
         <v>3</v>
       </c>
@@ -4005,7 +4060,7 @@
       <c r="J103" s="2"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A104" s="36"/>
+      <c r="A104" s="29"/>
       <c r="B104" s="25">
         <v>4</v>
       </c>
@@ -4025,7 +4080,7 @@
       <c r="J104" s="2"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A105" s="36"/>
+      <c r="A105" s="29"/>
       <c r="B105" s="25">
         <v>5</v>
       </c>
@@ -4045,7 +4100,7 @@
       <c r="J105" s="2"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A106" s="36"/>
+      <c r="A106" s="29"/>
       <c r="B106" s="25">
         <v>6</v>
       </c>
@@ -4065,7 +4120,7 @@
       <c r="J106" s="2"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A107" s="36"/>
+      <c r="A107" s="29"/>
       <c r="B107" s="25">
         <v>7</v>
       </c>
@@ -4085,7 +4140,7 @@
       <c r="J107" s="2"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A108" s="36"/>
+      <c r="A108" s="29"/>
       <c r="B108" s="25">
         <v>8</v>
       </c>
@@ -4105,7 +4160,7 @@
       <c r="J108" s="2"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A109" s="36"/>
+      <c r="A109" s="29"/>
       <c r="B109" s="25">
         <v>9</v>
       </c>
@@ -4125,7 +4180,7 @@
       <c r="J109" s="2"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A110" s="36"/>
+      <c r="A110" s="29"/>
       <c r="B110" s="25">
         <v>10</v>
       </c>
@@ -4145,7 +4200,7 @@
       <c r="J110" s="2"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A111" s="36"/>
+      <c r="A111" s="29"/>
       <c r="B111" s="25">
         <v>11</v>
       </c>
@@ -4165,7 +4220,7 @@
       <c r="J111" s="2"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A112" s="36"/>
+      <c r="A112" s="29"/>
       <c r="B112" s="25">
         <v>12</v>
       </c>
@@ -4185,7 +4240,7 @@
       <c r="J112" s="2"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A113" s="36"/>
+      <c r="A113" s="29"/>
       <c r="B113" s="25">
         <v>13</v>
       </c>
@@ -4205,7 +4260,7 @@
       <c r="J113" s="2"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A114" s="36"/>
+      <c r="A114" s="29"/>
       <c r="B114" s="25">
         <v>14</v>
       </c>
@@ -4225,7 +4280,7 @@
       <c r="J114" s="2"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A115" s="36"/>
+      <c r="A115" s="29"/>
       <c r="B115" s="25">
         <v>15</v>
       </c>
@@ -4245,7 +4300,7 @@
       <c r="J115" s="2"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A116" s="36"/>
+      <c r="A116" s="29"/>
       <c r="B116" s="25">
         <v>16</v>
       </c>
@@ -4509,7 +4564,7 @@
       <c r="J129" s="24"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A130" s="35" t="s">
+      <c r="A130" s="28" t="s">
         <v>252</v>
       </c>
       <c r="B130" s="25">
@@ -4535,7 +4590,7 @@
       <c r="J130" s="2"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A131" s="36"/>
+      <c r="A131" s="29"/>
       <c r="B131" s="25">
         <v>2</v>
       </c>
@@ -4553,7 +4608,7 @@
       <c r="J131" s="2"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A132" s="36"/>
+      <c r="A132" s="29"/>
       <c r="B132" s="25">
         <v>3</v>
       </c>
@@ -4571,7 +4626,7 @@
       <c r="J132" s="2"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A133" s="36"/>
+      <c r="A133" s="29"/>
       <c r="B133" s="25">
         <v>4</v>
       </c>
@@ -4589,7 +4644,7 @@
       <c r="J133" s="2"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A134" s="36"/>
+      <c r="A134" s="29"/>
       <c r="B134" s="25">
         <v>5</v>
       </c>
@@ -4629,7 +4684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -5172,10 +5227,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5247,38 +5302,76 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>88</v>
+      <c r="A6" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>261</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="46"/>
-      <c r="B7" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="A7" s="49"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="47"/>
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="49"/>
+      <c r="B8" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="50"/>
+      <c r="B9" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="46"/>
+      <c r="B11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="47"/>
+      <c r="B12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
